--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H2">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J2">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N2">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O2">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P2">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q2">
-        <v>14.14209969870134</v>
+        <v>227.4725199931609</v>
       </c>
       <c r="R2">
-        <v>127.278897288312</v>
+        <v>2047.252679938448</v>
       </c>
       <c r="S2">
-        <v>0.0001261930510304226</v>
+        <v>0.001644594320493231</v>
       </c>
       <c r="T2">
-        <v>0.0001261930510304226</v>
+        <v>0.001644594320493231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H3">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J3">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
         <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P3">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q3">
-        <v>21.11627275244667</v>
+        <v>130.2124798099155</v>
       </c>
       <c r="R3">
-        <v>190.04645477202</v>
+        <v>1171.91231828924</v>
       </c>
       <c r="S3">
-        <v>0.0001884251236940811</v>
+        <v>0.0009414179117511211</v>
       </c>
       <c r="T3">
-        <v>0.0001884251236940811</v>
+        <v>0.0009414179117511212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H4">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J4">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N4">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q4">
-        <v>81.37440837220566</v>
+        <v>639.759639248123</v>
       </c>
       <c r="R4">
-        <v>732.3696753498511</v>
+        <v>5757.836753233108</v>
       </c>
       <c r="S4">
-        <v>0.0007261216571134194</v>
+        <v>0.004625372195375051</v>
       </c>
       <c r="T4">
-        <v>0.0007261216571134194</v>
+        <v>0.004625372195375052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H5">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J5">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N5">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q5">
-        <v>11.91857270159967</v>
+        <v>28.69240586031066</v>
       </c>
       <c r="R5">
-        <v>107.267154314397</v>
+        <v>258.231652742796</v>
       </c>
       <c r="S5">
-        <v>0.000106352032950304</v>
+        <v>0.0002074420581465064</v>
       </c>
       <c r="T5">
-        <v>0.000106352032950304</v>
+        <v>0.0002074420581465065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H6">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J6">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N6">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O6">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P6">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q6">
-        <v>153.350229072271</v>
+        <v>948.9288614661232</v>
       </c>
       <c r="R6">
-        <v>1380.152061650439</v>
+        <v>8540.359753195111</v>
       </c>
       <c r="S6">
-        <v>0.001368377659268033</v>
+        <v>0.006860622180499936</v>
       </c>
       <c r="T6">
-        <v>0.001368377659268033</v>
+        <v>0.006860622180499936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.975819</v>
+        <v>18.35024466666666</v>
       </c>
       <c r="H7">
-        <v>8.927457</v>
+        <v>55.050734</v>
       </c>
       <c r="I7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="J7">
-        <v>0.003039595464778879</v>
+        <v>0.01838745945037238</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N7">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q7">
-        <v>58.73731752937767</v>
+        <v>568.2006520243482</v>
       </c>
       <c r="R7">
-        <v>528.635857764399</v>
+        <v>5113.805868219134</v>
       </c>
       <c r="S7">
-        <v>0.0005241259407226184</v>
+        <v>0.004108010784106534</v>
       </c>
       <c r="T7">
-        <v>0.0005241259407226184</v>
+        <v>0.004108010784106534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J8">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N8">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O8">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P8">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q8">
-        <v>4555.602076067704</v>
+        <v>11882.98310452802</v>
       </c>
       <c r="R8">
-        <v>41000.41868460934</v>
+        <v>106946.8479407522</v>
       </c>
       <c r="S8">
-        <v>0.04065063445368743</v>
+        <v>0.08591229624049258</v>
       </c>
       <c r="T8">
-        <v>0.04065063445368743</v>
+        <v>0.08591229624049257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J9">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
         <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P9">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q9">
-        <v>6802.196140555543</v>
+        <v>6802.196140555542</v>
       </c>
       <c r="R9">
-        <v>61219.76526499989</v>
+        <v>61219.76526499988</v>
       </c>
       <c r="S9">
-        <v>0.06069748502500625</v>
+        <v>0.04917892121639556</v>
       </c>
       <c r="T9">
-        <v>0.06069748502500624</v>
+        <v>0.04917892121639555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J10">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N10">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q10">
-        <v>26213.18132506472</v>
+        <v>33420.53354125129</v>
       </c>
       <c r="R10">
-        <v>235918.6319255825</v>
+        <v>300784.8018712616</v>
       </c>
       <c r="S10">
-        <v>0.2339059544975051</v>
+        <v>0.2416257561636365</v>
       </c>
       <c r="T10">
-        <v>0.2339059544975051</v>
+        <v>0.2416257561636365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J11">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N11">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q11">
-        <v>3839.336145265424</v>
+        <v>1498.868408705295</v>
       </c>
       <c r="R11">
-        <v>34554.02530738882</v>
+        <v>13489.81567834765</v>
       </c>
       <c r="S11">
-        <v>0.03425923677704783</v>
+        <v>0.01083660774583923</v>
       </c>
       <c r="T11">
-        <v>0.03425923677704783</v>
+        <v>0.01083660774583923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J12">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N12">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O12">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P12">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q12">
-        <v>49398.79061885331</v>
+        <v>49571.28724181707</v>
       </c>
       <c r="R12">
-        <v>444589.1155696798</v>
+        <v>446141.5851763536</v>
       </c>
       <c r="S12">
-        <v>0.4407962210857957</v>
+        <v>0.3583934334568502</v>
       </c>
       <c r="T12">
-        <v>0.4407962210857957</v>
+        <v>0.3583934334568502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="J13">
-        <v>0.9791464990891148</v>
+        <v>0.9605462233000205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N13">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q13">
-        <v>18921.08324650356</v>
+        <v>29682.34909513525</v>
       </c>
       <c r="R13">
-        <v>170289.749218532</v>
+        <v>267141.1418562172</v>
       </c>
       <c r="S13">
-        <v>0.1688369672500726</v>
+        <v>0.2145992084768064</v>
       </c>
       <c r="T13">
-        <v>0.1688369672500726</v>
+        <v>0.2145992084768064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H14">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J14">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N14">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O14">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P14">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q14">
-        <v>2.472540425041778</v>
+        <v>1.288402876544889</v>
       </c>
       <c r="R14">
-        <v>22.252863825376</v>
+        <v>11.595625888904</v>
       </c>
       <c r="S14">
-        <v>2.206301940161916E-05</v>
+        <v>9.314971554966606E-06</v>
       </c>
       <c r="T14">
-        <v>2.206301940161916E-05</v>
+        <v>9.314971554966606E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H15">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J15">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
         <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P15">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q15">
-        <v>3.691873138995556</v>
+        <v>0.7375226403355555</v>
       </c>
       <c r="R15">
-        <v>33.22685825096001</v>
+        <v>6.637703763019999</v>
       </c>
       <c r="S15">
-        <v>3.294339209543935E-05</v>
+        <v>5.332184940701823E-06</v>
       </c>
       <c r="T15">
-        <v>3.294339209543935E-05</v>
+        <v>5.332184940701823E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H16">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J16">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N16">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q16">
-        <v>14.22713165306089</v>
+        <v>3.62359444353711</v>
       </c>
       <c r="R16">
-        <v>128.044184877548</v>
+        <v>32.61234999183399</v>
       </c>
       <c r="S16">
-        <v>0.0001269518097709439</v>
+        <v>2.619807808781094E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001269518097709438</v>
+        <v>2.619807808781094E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H17">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J17">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N17">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q17">
-        <v>2.083789072439556</v>
+        <v>0.1625136005286667</v>
       </c>
       <c r="R17">
-        <v>18.754101651956</v>
+        <v>1.462622404758</v>
       </c>
       <c r="S17">
-        <v>1.859410599255989E-05</v>
+        <v>1.174950470678334E-06</v>
       </c>
       <c r="T17">
-        <v>1.859410599255989E-05</v>
+        <v>1.174950470678334E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H18">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J18">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N18">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O18">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P18">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q18">
-        <v>26.81105696104133</v>
+        <v>5.374726911128333</v>
       </c>
       <c r="R18">
-        <v>241.299512649372</v>
+        <v>48.372542200155</v>
       </c>
       <c r="S18">
-        <v>0.0002392409296601799</v>
+        <v>3.885851949285805E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002392409296601799</v>
+        <v>3.885851949285805E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5202786666666667</v>
+        <v>0.1039356666666667</v>
       </c>
       <c r="H19">
-        <v>1.560836</v>
+        <v>0.311807</v>
       </c>
       <c r="I19">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="J19">
-        <v>0.0005314290538575102</v>
+        <v>0.0001041464509599865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N19">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q19">
-        <v>10.26936559238356</v>
+        <v>3.218284804445222</v>
       </c>
       <c r="R19">
-        <v>92.42429033145201</v>
+        <v>28.964563240007</v>
       </c>
       <c r="S19">
-        <v>9.163579693676808E-05</v>
+        <v>2.326774641297073E-05</v>
       </c>
       <c r="T19">
-        <v>9.163579693676807E-05</v>
+        <v>2.326774641297073E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H20">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J20">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N20">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O20">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P20">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q20">
-        <v>69.96969918980801</v>
+        <v>249.4675053998302</v>
       </c>
       <c r="R20">
-        <v>629.7272927082721</v>
+        <v>2245.207548598472</v>
       </c>
       <c r="S20">
-        <v>0.0006243549408192614</v>
+        <v>0.001803614970900707</v>
       </c>
       <c r="T20">
-        <v>0.0006243549408192613</v>
+        <v>0.001803614970900707</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H21">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J21">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
         <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P21">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q21">
-        <v>104.47523946068</v>
+        <v>142.8031065514289</v>
       </c>
       <c r="R21">
-        <v>940.2771551461202</v>
+        <v>1285.22795896286</v>
       </c>
       <c r="S21">
-        <v>0.0009322554292194608</v>
+        <v>0.001032446371941238</v>
       </c>
       <c r="T21">
-        <v>0.0009322554292194605</v>
+        <v>0.001032446371941238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H22">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J22">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N22">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q22">
-        <v>402.609442505534</v>
+        <v>701.6198759459957</v>
       </c>
       <c r="R22">
-        <v>3623.484982549807</v>
+        <v>6314.578883513961</v>
       </c>
       <c r="S22">
-        <v>0.003592572178521441</v>
+        <v>0.005072613004685764</v>
       </c>
       <c r="T22">
-        <v>0.003592572178521441</v>
+        <v>0.005072613004685764</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H23">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J23">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N23">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q23">
-        <v>58.968538227698</v>
+        <v>31.46675877203267</v>
       </c>
       <c r="R23">
-        <v>530.716844049282</v>
+        <v>283.200828948294</v>
       </c>
       <c r="S23">
-        <v>0.0005261891736232538</v>
+        <v>0.0002275002394239594</v>
       </c>
       <c r="T23">
-        <v>0.0005261891736232538</v>
+        <v>0.0002275002394239594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H24">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J24">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N24">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O24">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P24">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q24">
-        <v>758.718268678326</v>
+        <v>1040.683577422768</v>
       </c>
       <c r="R24">
-        <v>6828.464418104934</v>
+        <v>9366.152196804915</v>
       </c>
       <c r="S24">
-        <v>0.006770209179463652</v>
+        <v>0.007523995869529738</v>
       </c>
       <c r="T24">
-        <v>0.006770209179463651</v>
+        <v>0.007523995869529737</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.723214</v>
+        <v>20.12458366666667</v>
       </c>
       <c r="H25">
-        <v>44.169642</v>
+        <v>60.373751</v>
       </c>
       <c r="I25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="J25">
-        <v>0.01503875554977265</v>
+        <v>0.02016539685700429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N25">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q25">
-        <v>290.609776928966</v>
+        <v>623.1416402795945</v>
       </c>
       <c r="R25">
-        <v>2615.487992360694</v>
+        <v>5608.274762516351</v>
       </c>
       <c r="S25">
-        <v>0.002593174648125583</v>
+        <v>0.004505226400522882</v>
       </c>
       <c r="T25">
-        <v>0.002593174648125583</v>
+        <v>0.004505226400522882</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>2.293185</v>
       </c>
       <c r="I26">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J26">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N26">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O26">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P26">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q26">
-        <v>3.632663915106667</v>
+        <v>9.475560684813333</v>
       </c>
       <c r="R26">
-        <v>32.69397523596</v>
+        <v>85.28004616331998</v>
       </c>
       <c r="S26">
-        <v>3.241505523098008E-05</v>
+        <v>6.850697080333698E-05</v>
       </c>
       <c r="T26">
-        <v>3.241505523098008E-05</v>
+        <v>6.850697080333698E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>2.293185</v>
       </c>
       <c r="I27">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J27">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N27">
         <v>21.28786</v>
       </c>
       <c r="O27">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P27">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q27">
-        <v>5.424111248233333</v>
+        <v>5.424111248233332</v>
       </c>
       <c r="R27">
-        <v>48.8170012341</v>
+        <v>48.81700123409999</v>
       </c>
       <c r="S27">
-        <v>4.840053189597119E-05</v>
+        <v>3.92155613031244E-05</v>
       </c>
       <c r="T27">
-        <v>4.840053189597119E-05</v>
+        <v>3.92155613031244E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>2.293185</v>
       </c>
       <c r="I28">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J28">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N28">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q28">
-        <v>20.90254511032833</v>
+        <v>26.64973019849666</v>
       </c>
       <c r="R28">
-        <v>188.122905992955</v>
+        <v>239.84757178647</v>
       </c>
       <c r="S28">
-        <v>0.0001865179851628114</v>
+        <v>0.0001926738004592479</v>
       </c>
       <c r="T28">
-        <v>0.0001865179851628114</v>
+        <v>0.000192673800459248</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>2.293185</v>
       </c>
       <c r="I29">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J29">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N29">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q29">
-        <v>3.061509245098333</v>
+        <v>1.19520649321</v>
       </c>
       <c r="R29">
-        <v>27.553583205885</v>
+        <v>10.75685843889</v>
       </c>
       <c r="S29">
-        <v>2.73185170963179E-05</v>
+        <v>8.641174813594609E-06</v>
       </c>
       <c r="T29">
-        <v>2.73185170963179E-05</v>
+        <v>8.641174813594609E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>2.293185</v>
       </c>
       <c r="I30">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J30">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N30">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O30">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P30">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q30">
-        <v>39.390886459055</v>
+        <v>39.52843628172499</v>
       </c>
       <c r="R30">
-        <v>354.517978131495</v>
+        <v>355.755926535525</v>
       </c>
       <c r="S30">
-        <v>0.0003514935017405926</v>
+        <v>0.0002857850337652128</v>
       </c>
       <c r="T30">
-        <v>0.0003514935017405926</v>
+        <v>0.0002857850337652128</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>2.293185</v>
       </c>
       <c r="I31">
-        <v>0.0007807771827855292</v>
+        <v>0.0007659452133681303</v>
       </c>
       <c r="J31">
-        <v>0.0007807771827855293</v>
+        <v>0.0007659452133681304</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N31">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O31">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P31">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q31">
-        <v>15.08778317258833</v>
+        <v>23.66887991379833</v>
       </c>
       <c r="R31">
-        <v>135.790048553295</v>
+        <v>213.019919224185</v>
       </c>
       <c r="S31">
-        <v>0.0001346315916588562</v>
+        <v>0.0001711226722236136</v>
       </c>
       <c r="T31">
-        <v>0.0001346315916588562</v>
+        <v>0.0001711226722236136</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H32">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J32">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N32">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O32">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P32">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q32">
-        <v>6.806529134768891</v>
+        <v>0.3813843085697778</v>
       </c>
       <c r="R32">
-        <v>61.25876221292002</v>
+        <v>3.432458777128</v>
       </c>
       <c r="S32">
-        <v>6.073614928077654E-05</v>
+        <v>2.757354900793962E-06</v>
       </c>
       <c r="T32">
-        <v>6.073614928077653E-05</v>
+        <v>2.757354900793962E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H33">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J33">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N33">
         <v>21.28786</v>
       </c>
       <c r="O33">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P33">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q33">
-        <v>10.16316733507778</v>
+        <v>0.2183164655711111</v>
       </c>
       <c r="R33">
-        <v>91.46850601570002</v>
+        <v>1.96484819014</v>
       </c>
       <c r="S33">
-        <v>9.068816664218316E-05</v>
+        <v>1.57839733502403E-06</v>
       </c>
       <c r="T33">
-        <v>9.068816664218314E-05</v>
+        <v>1.578397335024029E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H34">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J34">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N34">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O34">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P34">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q34">
-        <v>39.16513765355946</v>
+        <v>1.072631927904222</v>
       </c>
       <c r="R34">
-        <v>352.4862388820351</v>
+        <v>9.653687351138</v>
       </c>
       <c r="S34">
-        <v>0.0003494790957373191</v>
+        <v>7.754977949266251E-06</v>
       </c>
       <c r="T34">
-        <v>0.000349479095737319</v>
+        <v>7.754977949266251E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H35">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J35">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N35">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O35">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P35">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q35">
-        <v>5.736355567182779</v>
+        <v>0.04810617726733334</v>
       </c>
       <c r="R35">
-        <v>51.62720010464501</v>
+        <v>0.432955595406</v>
       </c>
       <c r="S35">
-        <v>5.118675629790814E-05</v>
+        <v>3.478008944415601E-07</v>
       </c>
       <c r="T35">
-        <v>5.118675629790814E-05</v>
+        <v>3.478008944415601E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H36">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J36">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N36">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O36">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P36">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q36">
-        <v>73.80677722840167</v>
+        <v>1.590990321481667</v>
       </c>
       <c r="R36">
-        <v>664.2609950556151</v>
+        <v>14.318912893335</v>
       </c>
       <c r="S36">
-        <v>0.0006585940280162232</v>
+        <v>1.150263621622127E-05</v>
       </c>
       <c r="T36">
-        <v>0.0006585940280162231</v>
+        <v>1.150263621622127E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>1.432248333333334</v>
+        <v>0.03076633333333334</v>
       </c>
       <c r="H37">
-        <v>4.296745</v>
+        <v>0.09229900000000001</v>
       </c>
       <c r="I37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="J37">
-        <v>0.001462943659690696</v>
+        <v>3.082872827472056E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N37">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O37">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P37">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q37">
-        <v>28.27000739491278</v>
+        <v>0.9526549088554446</v>
       </c>
       <c r="R37">
-        <v>254.430066554215</v>
+        <v>8.573894179699</v>
       </c>
       <c r="S37">
-        <v>0.0002522594637162864</v>
+        <v>6.887560978973487E-06</v>
       </c>
       <c r="T37">
-        <v>0.0002522594637162864</v>
+        <v>6.887560978973486E-06</v>
       </c>
     </row>
   </sheetData>
